--- a/doc/01_勉強会/01_勉強会資料/20180823_勉強会/02.資料/スマホアプリ機能分担表.xlsx
+++ b/doc/01_勉強会/01_勉強会資料/20180823_勉強会/02.資料/スマホアプリ機能分担表.xlsx
@@ -42,25 +42,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・工程としてSS～PTまでを想定。※ITは全員で確認する想定</t>
-    <rPh sb="1" eb="3">
-      <t>コウテイ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ソウテイ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>ゼンイン</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>カクニン</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>ソウテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>一覧表示(画面表示)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -138,10 +119,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>機能遷移機能</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>検索機能</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -277,27 +254,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2名</t>
-    <rPh sb="1" eb="2">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>２名</t>
-    <rPh sb="1" eb="2">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>３名</t>
-    <rPh sb="1" eb="2">
-      <t>メイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>3名</t>
     <rPh sb="1" eb="2">
       <t>メイ</t>
@@ -305,7 +261,15 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・担当している機能が終わり次第、他の手伝いをしてほしい。</t>
+    <t>赤池/酒井/望月/天野</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>石田/三井/大塚</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・担当している機能が終わり次第、他の手伝いに回っていただけると幸いです。</t>
     <rPh sb="1" eb="3">
       <t>タントウ</t>
     </rPh>
@@ -323,6 +287,43 @@
     </rPh>
     <rPh sb="18" eb="20">
       <t>テツダ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>マワ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>サイワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4名</t>
+    <rPh sb="1" eb="2">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>渡部/後藤/(  )</t>
+    <rPh sb="0" eb="2">
+      <t>ワタナベ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ゴトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">須永/舘野/残１
+</t>
+    <rPh sb="0" eb="2">
+      <t>スナガ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タテノ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ザン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -382,7 +383,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -423,11 +424,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -439,14 +502,92 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -752,22 +893,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:O35"/>
+  <dimension ref="B4:O35"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.15">
@@ -776,548 +912,545 @@
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9" t="s">
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="L7" s="7"/>
+      <c r="M7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.15">
+      <c r="B8" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="30"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L7" s="7"/>
-      <c r="M7" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="N7" s="9"/>
-      <c r="O7" s="9"/>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B8" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="3" t="s">
-        <v>5</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
-      <c r="K8" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L8" s="11"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
+      <c r="K8" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="L8" s="13"/>
+      <c r="M8" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="N8" s="20"/>
+      <c r="O8" s="21"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
+      <c r="B9" s="32"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="34"/>
       <c r="E9" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="24"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="34"/>
       <c r="E10" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="24"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="34"/>
       <c r="E11" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="8"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="24"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="34"/>
       <c r="E12" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="8"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="24"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="34"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="8"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="24"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B14" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="34"/>
       <c r="E14" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="L14" s="11"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="8"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="23"/>
+      <c r="O14" s="24"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="34"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="8"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="23"/>
+      <c r="O15" s="24"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="34"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="8"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="23"/>
+      <c r="O16" s="24"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="37"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="8"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="17"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="26"/>
+      <c r="O17" s="27"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B18" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
+      <c r="B18" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
       <c r="E18" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-      <c r="K18" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="L18" s="11"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="8"/>
+      <c r="K18" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L18" s="8"/>
+      <c r="M18" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
+      <c r="B19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="8"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="8"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="8"/>
+      <c r="K20" s="8"/>
+      <c r="L20" s="8"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="8"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="8"/>
+      <c r="K21" s="8"/>
+      <c r="L21" s="8"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="8"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="8"/>
+      <c r="K22" s="8"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B23" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
+      <c r="B23" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
       <c r="E23" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
-      <c r="K23" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L23" s="11"/>
-      <c r="M23" s="8"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="8"/>
+      <c r="K23" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L23" s="8"/>
+      <c r="M23" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="8"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="8"/>
+      <c r="K24" s="8"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="8"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="8"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="8"/>
+      <c r="K26" s="8"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B27" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="8"/>
-      <c r="D27" s="8"/>
+      <c r="B27" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
       <c r="E27" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
-      <c r="K27" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="L27" s="11"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
+      <c r="K27" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="L27" s="13"/>
+      <c r="M27" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="N27" s="20"/>
+      <c r="O27" s="21"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B28" s="8"/>
-      <c r="C28" s="8"/>
-      <c r="D28" s="8"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="8"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="15"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="24"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B29" s="8"/>
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="8"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="23"/>
+      <c r="O29" s="24"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B30" s="8"/>
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="8"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="15"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="24"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B31" s="8"/>
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="8"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="8"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="15"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="23"/>
+      <c r="O31" s="24"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B32" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
+      <c r="B32" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
       <c r="E32" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
-      <c r="K32" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="L32" s="11"/>
-      <c r="M32" s="8"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="8"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="15"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="23"/>
+      <c r="O32" s="24"/>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
       <c r="E33" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="8"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="15"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="23"/>
+      <c r="O33" s="24"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
       <c r="E34" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="8"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="23"/>
+      <c r="O34" s="24"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B35" s="8"/>
-      <c r="C35" s="8"/>
-      <c r="D35" s="8"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="8"/>
-      <c r="N35" s="8"/>
-      <c r="O35" s="8"/>
+      <c r="K35" s="16"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="25"/>
+      <c r="N35" s="26"/>
+      <c r="O35" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="K23:L26"/>
-    <mergeCell ref="K27:L31"/>
-    <mergeCell ref="K32:L35"/>
-    <mergeCell ref="B14:D17"/>
-    <mergeCell ref="B18:D22"/>
+  <mergeCells count="16">
+    <mergeCell ref="M27:O35"/>
+    <mergeCell ref="K8:L17"/>
+    <mergeCell ref="B8:D17"/>
+    <mergeCell ref="M8:O17"/>
     <mergeCell ref="M18:O22"/>
     <mergeCell ref="M23:O26"/>
-    <mergeCell ref="M27:O31"/>
-    <mergeCell ref="M32:O35"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="E7:J7"/>
     <mergeCell ref="M7:O7"/>
-    <mergeCell ref="M8:O13"/>
-    <mergeCell ref="M14:O17"/>
     <mergeCell ref="B23:D26"/>
     <mergeCell ref="B27:D31"/>
     <mergeCell ref="B32:D35"/>
-    <mergeCell ref="B8:D13"/>
-    <mergeCell ref="K8:L13"/>
-    <mergeCell ref="K14:L17"/>
     <mergeCell ref="K18:L22"/>
+    <mergeCell ref="K23:L26"/>
+    <mergeCell ref="B18:D22"/>
+    <mergeCell ref="K27:L35"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/01_勉強会/01_勉強会資料/20180823_勉強会/02.資料/スマホアプリ機能分担表.xlsx
+++ b/doc/01_勉強会/01_勉強会資料/20180823_勉強会/02.資料/スマホアプリ機能分担表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="12195"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -304,17 +304,20 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>渡部/後藤/(  )</t>
+    <t>渡部/後藤/堀</t>
     <rPh sb="0" eb="2">
       <t>ワタナベ</t>
     </rPh>
     <rPh sb="3" eb="5">
       <t>ゴトウ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">須永/舘野/残１
+    <rPh sb="6" eb="7">
+      <t>ホリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">須永/舘野/清田
 </t>
     <rPh sb="0" eb="2">
       <t>スナガ</t>
@@ -322,8 +325,8 @@
     <rPh sb="3" eb="5">
       <t>タテノ</t>
     </rPh>
-    <rPh sb="6" eb="7">
-      <t>ザン</t>
+    <rPh sb="6" eb="8">
+      <t>キヨタ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -501,92 +504,92 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -895,8 +898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="100" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="M27" sqref="K23:O35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -912,35 +915,35 @@
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11" t="s">
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="35"/>
+      <c r="I7" s="35"/>
+      <c r="J7" s="35"/>
       <c r="K7" s="7" t="s">
         <v>21</v>
       </c>
       <c r="L7" s="7"/>
-      <c r="M7" s="11" t="s">
+      <c r="M7" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="35"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="31"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="25"/>
       <c r="E8" s="3" t="s">
         <v>4</v>
       </c>
@@ -949,20 +952,20 @@
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
       <c r="J8" s="3"/>
-      <c r="K8" s="12" t="s">
+      <c r="K8" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="L8" s="13"/>
-      <c r="M8" s="19" t="s">
+      <c r="L8" s="18"/>
+      <c r="M8" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="N8" s="20"/>
-      <c r="O8" s="21"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="10"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B9" s="32"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="34"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="28"/>
       <c r="E9" s="4" t="s">
         <v>5</v>
       </c>
@@ -971,16 +974,16 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="24"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="11"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="13"/>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B10" s="32"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="34"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="28"/>
       <c r="E10" s="4" t="s">
         <v>6</v>
       </c>
@@ -989,16 +992,16 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="24"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="13"/>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B11" s="32"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="34"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="28"/>
       <c r="E11" s="4" t="s">
         <v>7</v>
       </c>
@@ -1007,16 +1010,16 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="15"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="24"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="11"/>
+      <c r="N11" s="12"/>
+      <c r="O11" s="13"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B12" s="32"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="34"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="28"/>
       <c r="E12" s="4" t="s">
         <v>8</v>
       </c>
@@ -1025,32 +1028,32 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="24"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="13"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B13" s="32"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="34"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="28"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="24"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="12"/>
+      <c r="O13" s="13"/>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B14" s="32"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="34"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="28"/>
       <c r="E14" s="2" t="s">
         <v>12</v>
       </c>
@@ -1059,66 +1062,66 @@
       <c r="H14" s="2"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="24"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="12"/>
+      <c r="O14" s="13"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B15" s="32"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="34"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="28"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="24"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="13"/>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B16" s="32"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="34"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="28"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="24"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="12"/>
+      <c r="O16" s="13"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B17" s="35"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="37"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="31"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
-      <c r="K17" s="16"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="25"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="27"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="16"/>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
       <c r="E18" s="3" t="s">
         <v>11</v>
       </c>
@@ -1127,86 +1130,86 @@
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
-      <c r="K18" s="8" t="s">
+      <c r="K18" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="L18" s="8"/>
-      <c r="M18" s="10" t="s">
+      <c r="L18" s="36"/>
+      <c r="M18" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="N18" s="10"/>
-      <c r="O18" s="10"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="33"/>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="8"/>
-      <c r="L19" s="8"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
+      <c r="K19" s="36"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="33"/>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="37"/>
+      <c r="D20" s="37"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
-      <c r="K20" s="8"/>
-      <c r="L20" s="8"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="33"/>
+      <c r="N20" s="33"/>
+      <c r="O20" s="33"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="8"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
+      <c r="K21" s="36"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="33"/>
+      <c r="N21" s="33"/>
+      <c r="O21" s="33"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
-      <c r="K22" s="8"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36"/>
+      <c r="M22" s="33"/>
+      <c r="N22" s="33"/>
+      <c r="O22" s="33"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
       <c r="E23" s="1" t="s">
         <v>14</v>
       </c>
@@ -1215,70 +1218,70 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
-      <c r="K23" s="8" t="s">
+      <c r="K23" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="L23" s="8"/>
-      <c r="M23" s="18" t="s">
+      <c r="L23" s="36"/>
+      <c r="M23" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
+      <c r="N23" s="33"/>
+      <c r="O23" s="33"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="8"/>
-      <c r="L24" s="8"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="33"/>
+      <c r="N24" s="33"/>
+      <c r="O24" s="33"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
-      <c r="K25" s="8"/>
-      <c r="L25" s="8"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="33"/>
+      <c r="N25" s="33"/>
+      <c r="O25" s="33"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="8"/>
-      <c r="L26" s="8"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="33"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
       <c r="E27" s="3" t="s">
         <v>16</v>
       </c>
@@ -1287,86 +1290,86 @@
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
-      <c r="K27" s="12" t="s">
+      <c r="K27" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="L27" s="13"/>
-      <c r="M27" s="28" t="s">
+      <c r="L27" s="18"/>
+      <c r="M27" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="N27" s="20"/>
-      <c r="O27" s="21"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="10"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
-      <c r="K28" s="14"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="23"/>
-      <c r="O28" s="24"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="12"/>
+      <c r="O28" s="13"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
       <c r="E29" s="4"/>
       <c r="F29" s="4"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
-      <c r="K29" s="14"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="23"/>
-      <c r="O29" s="24"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="12"/>
+      <c r="O29" s="13"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
       <c r="E30" s="4"/>
       <c r="F30" s="4"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
-      <c r="K30" s="14"/>
-      <c r="L30" s="15"/>
-      <c r="M30" s="22"/>
-      <c r="N30" s="23"/>
-      <c r="O30" s="24"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="12"/>
+      <c r="O30" s="13"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
       <c r="I31" s="5"/>
       <c r="J31" s="5"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="15"/>
-      <c r="M31" s="22"/>
-      <c r="N31" s="23"/>
-      <c r="O31" s="24"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="13"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
       <c r="E32" s="3" t="s">
         <v>18</v>
       </c>
@@ -1375,16 +1378,16 @@
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
-      <c r="K32" s="14"/>
-      <c r="L32" s="15"/>
-      <c r="M32" s="22"/>
-      <c r="N32" s="23"/>
-      <c r="O32" s="24"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="12"/>
+      <c r="O32" s="13"/>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
       <c r="E33" s="4" t="s">
         <v>19</v>
       </c>
@@ -1393,16 +1396,16 @@
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
-      <c r="K33" s="14"/>
-      <c r="L33" s="15"/>
-      <c r="M33" s="22"/>
-      <c r="N33" s="23"/>
-      <c r="O33" s="24"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="20"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="12"/>
+      <c r="O33" s="13"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
       <c r="E34" s="4" t="s">
         <v>20</v>
       </c>
@@ -1411,46 +1414,46 @@
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
-      <c r="K34" s="14"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="22"/>
-      <c r="N34" s="23"/>
-      <c r="O34" s="24"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="12"/>
+      <c r="O34" s="13"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.15">
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
       <c r="I35" s="6"/>
       <c r="J35" s="6"/>
-      <c r="K35" s="16"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="25"/>
-      <c r="N35" s="26"/>
-      <c r="O35" s="27"/>
+      <c r="K35" s="21"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="15"/>
+      <c r="O35" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="B23:D26"/>
+    <mergeCell ref="B27:D31"/>
+    <mergeCell ref="K18:L22"/>
+    <mergeCell ref="K23:L26"/>
+    <mergeCell ref="B18:D22"/>
+    <mergeCell ref="K27:L35"/>
     <mergeCell ref="M27:O35"/>
     <mergeCell ref="K8:L17"/>
     <mergeCell ref="B8:D17"/>
     <mergeCell ref="M8:O17"/>
     <mergeCell ref="M18:O22"/>
     <mergeCell ref="M23:O26"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="B23:D26"/>
-    <mergeCell ref="B27:D31"/>
     <mergeCell ref="B32:D35"/>
-    <mergeCell ref="K18:L22"/>
-    <mergeCell ref="K23:L26"/>
-    <mergeCell ref="B18:D22"/>
-    <mergeCell ref="K27:L35"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
